--- a/linux_android_basic_training/android_training_schedule.xlsx
+++ b/linux_android_basic_training/android_training_schedule.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="314" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="210" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,6 +64,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -82,11 +83,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 5th—6</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 5th—12</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -102,11 +104,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 7</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 13th—14</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -122,11 +125,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 10</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 17</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -144,6 +148,7 @@
     <r>
       <rPr>
         <rFont val="WenQuanYi Micro Hei"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="15"/>
       </rPr>
@@ -152,11 +157,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 11</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 18</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -175,11 +181,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 12th—13</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 19th—20</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -195,11 +202,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 14th—17</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 21th—24</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -215,11 +223,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 18th—19</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 25th—26</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -235,11 +244,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 20th—21</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">September 27th—28</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="22"/>
         <vertAlign val="superscript"/>
@@ -258,6 +268,7 @@
   <fonts count="8">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -278,22 +289,26 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="22"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="15"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="22"/>
       <vertAlign val="superscript"/>
     </font>
     <font>
       <name val="WenQuanYi Micro Hei"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="15"/>
     </font>
@@ -363,16 +378,16 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.2117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.5254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.4941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.75" outlineLevel="0" r="1" s="1">
@@ -417,7 +432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="4" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="4" s="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -431,7 +446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="5" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="5" s="1">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -445,7 +460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="6" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="6" s="1">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -459,7 +474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="7" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="7" s="1">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -473,7 +488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="8" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="8" s="1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -487,7 +502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="9" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="9" s="1">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -501,7 +516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="10" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="10" s="1">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -515,7 +530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="11" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="11" s="1">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -529,7 +544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.5" outlineLevel="0" r="12" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="27.2" outlineLevel="0" r="12" s="1">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -566,7 +581,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -591,7 +606,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/linux_android_basic_training/android_training_schedule.xlsx
+++ b/linux_android_basic_training/android_training_schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="210" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,7 +59,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 4</t>
+      <t xml:space="preserve">September 13</t>
     </r>
     <r>
       <rPr>
@@ -83,7 +83,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 5th—12</t>
+      <t xml:space="preserve">September 14th—17</t>
     </r>
     <r>
       <rPr>
@@ -104,7 +104,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 13th—14</t>
+      <t xml:space="preserve">September 18</t>
     </r>
     <r>
       <rPr>
@@ -125,7 +125,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 17</t>
+      <t xml:space="preserve">September 19</t>
     </r>
     <r>
       <rPr>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 18</t>
+      <t xml:space="preserve">September 20</t>
     </r>
     <r>
       <rPr>
@@ -180,19 +180,7 @@
     <t>2  days</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">September 19th—20</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <sz val="22"/>
-        <vertAlign val="superscript"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
+    <t>September 21th—24th</t>
   </si>
   <si>
     <t>Training #8</t>
@@ -202,7 +190,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 21th—24</t>
+      <t xml:space="preserve">September 25</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="22"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="22"/>
+      </rPr>
+      <t xml:space="preserve">—26</t>
     </r>
     <r>
       <rPr>
@@ -223,7 +230,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 25th—26</t>
+      <t xml:space="preserve">September 27th—28</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +251,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">September 27th—28</t>
+      <t xml:space="preserve">September 29th—30</t>
     </r>
     <r>
       <rPr>
@@ -378,16 +385,16 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.5254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.4941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.75" outlineLevel="0" r="1" s="1">
@@ -581,7 +588,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.7294117647059"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -606,7 +613,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.7294117647059"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
